--- a/疲勞量表/60.xlsx
+++ b/疲勞量表/60.xlsx
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -609,6 +609,19 @@
       <c r="F8" s="18" t="n"/>
       <c r="L8" s="19" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" s="13" t="inlineStr">
+        <is>
+          <t>05/06-05/12 T2</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="n"/>
+      <c r="C9" s="15" t="n"/>
+      <c r="D9" s="16" t="n"/>
+      <c r="E9" s="17" t="n"/>
+      <c r="F9" s="18" t="n"/>
+      <c r="L9" s="19" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>

--- a/疲勞量表/60.xlsx
+++ b/疲勞量表/60.xlsx
@@ -78,7 +78,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -149,6 +149,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00DDDDDD"/>
         <bgColor rgb="00DDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000FF"/>
+        <bgColor rgb="000000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000CC"/>
+        <bgColor rgb="000000CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -209,6 +221,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -487,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -622,6 +636,21 @@
       <c r="F9" s="18" t="n"/>
       <c r="L9" s="19" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
+          <t>05/13-05/19 T2</t>
+        </is>
+      </c>
+      <c r="B10" s="14" t="n"/>
+      <c r="C10" s="15" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="17" t="n"/>
+      <c r="F10" s="18" t="n"/>
+      <c r="G10" s="20" t="n"/>
+      <c r="H10" s="21" t="n"/>
+      <c r="L10" s="19" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>

--- a/疲勞量表/60.xlsx
+++ b/疲勞量表/60.xlsx
@@ -78,7 +78,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -161,6 +161,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="000000CC"/>
         <bgColor rgb="000000CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF9999"/>
+        <bgColor rgb="00FF9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +235,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -501,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -651,6 +665,27 @@
       <c r="H10" s="21" t="n"/>
       <c r="L10" s="19" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" s="13" t="inlineStr">
+        <is>
+          <t>05/20-05/26 T2</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="n"/>
+      <c r="C11" s="15" t="n"/>
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="17" t="n"/>
+      <c r="F11" s="18" t="n"/>
+      <c r="G11" s="20" t="n"/>
+      <c r="H11" s="21" t="n"/>
+      <c r="I11" s="22" t="n"/>
+      <c r="J11" s="23" t="n"/>
+      <c r="L11" s="19" t="inlineStr">
+        <is>
+          <t>*太累囉，週末多去休息~</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>

--- a/疲勞量表/60.xlsx
+++ b/疲勞量表/60.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11175" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="result" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -686,6 +686,20 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="13" t="inlineStr">
+        <is>
+          <t>05/27-06/02 T2</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="n"/>
+      <c r="C12" s="15" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="17" t="n"/>
+      <c r="F12" s="18" t="n"/>
+      <c r="G12" s="20" t="n"/>
+      <c r="L12" s="19" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>

--- a/疲勞量表/60.xlsx
+++ b/疲勞量表/60.xlsx
@@ -515,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -700,6 +700,19 @@
       <c r="G12" s="20" t="n"/>
       <c r="L12" s="19" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" s="13" t="inlineStr">
+        <is>
+          <t>06/03-06/09 T2實習第二週</t>
+        </is>
+      </c>
+      <c r="B13" s="14" t="n"/>
+      <c r="C13" s="15" t="n"/>
+      <c r="D13" s="16" t="n"/>
+      <c r="E13" s="17" t="n"/>
+      <c r="F13" s="18" t="n"/>
+      <c r="L13" s="19" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:M3"/>
